--- a/Code/Jupiter/Connect4/Logs/PPO_matrix/matrix_scores.xlsx
+++ b/Code/Jupiter/Connect4/Logs/PPO_matrix/matrix_scores.xlsx
@@ -14,39 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
-    <t>RND_27b</t>
+    <t>MIX_10</t>
   </si>
   <si>
-    <t>RND_29</t>
+    <t>MIX_7a</t>
   </si>
   <si>
-    <t>RND_30</t>
+    <t>MIX_7b</t>
   </si>
   <si>
-    <t>RND_31</t>
+    <t>MIX_8</t>
   </si>
   <si>
-    <t>RND_32</t>
+    <t>MIX_11</t>
   </si>
   <si>
-    <t>RND_33</t>
-  </si>
-  <si>
-    <t>RND_34</t>
-  </si>
-  <si>
-    <t>RND_35</t>
-  </si>
-  <si>
-    <t>RND_36</t>
-  </si>
-  <si>
-    <t>DIST_XII</t>
-  </si>
-  <si>
-    <t>DIST_XIII</t>
+    <t>model</t>
   </si>
 </sst>
 </file>
@@ -404,13 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,26 +414,8 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,413 +423,95 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.311</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.323</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0.5</v>
-      </c>
-      <c r="L2">
-        <v>0.5</v>
+        <v>0.307</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.503</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.488</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.513</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.6890000000000001</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.512</v>
       </c>
       <c r="D4">
         <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.5</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.75</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>0.102</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.677</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.487</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="E5">
         <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.5</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>0.102</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.6930000000000001</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.898</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.898</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0.5</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0.5</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0.5</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.5</v>
-      </c>
-      <c r="K10">
-        <v>0.5</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.5</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0.25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>0.5</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.5</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0.5</v>
-      </c>
-      <c r="L12">
         <v>0.5</v>
       </c>
     </row>

--- a/Code/Jupiter/Connect4/Logs/PPO_matrix/matrix_scores.xlsx
+++ b/Code/Jupiter/Connect4/Logs/PPO_matrix/matrix_scores.xlsx
@@ -14,21 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
-  <si>
-    <t>MIX_10</t>
-  </si>
-  <si>
-    <t>MIX_7a</t>
-  </si>
-  <si>
-    <t>MIX_7b</t>
-  </si>
-  <si>
-    <t>MIX_8</t>
-  </si>
-  <si>
-    <t>MIX_11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+  <si>
+    <t>MIX_55</t>
+  </si>
+  <si>
+    <t>MIX_54</t>
+  </si>
+  <si>
+    <t>MIX_44</t>
+  </si>
+  <si>
+    <t>MIX_34</t>
+  </si>
+  <si>
+    <t>MIX_57a</t>
+  </si>
+  <si>
+    <t>MIX_42b</t>
+  </si>
+  <si>
+    <t>MIX_45b</t>
+  </si>
+  <si>
+    <t>MIX_58</t>
   </si>
   <si>
     <t>model</t>
@@ -389,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -414,8 +423,17 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,95 +441,227 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>0.497</v>
+        <v>0.504</v>
       </c>
       <c r="D2">
-        <v>0.311</v>
+        <v>0.49</v>
       </c>
       <c r="E2">
-        <v>0.323</v>
+        <v>0.492</v>
       </c>
       <c r="F2">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.039</v>
+      </c>
+      <c r="G2">
+        <v>0.46</v>
+      </c>
+      <c r="H2">
+        <v>0.484</v>
+      </c>
+      <c r="I2">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.503</v>
+        <v>0.496</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.488</v>
+        <v>0.077</v>
       </c>
       <c r="E3">
-        <v>0.513</v>
+        <v>0.497</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.955</v>
+      </c>
+      <c r="G3">
+        <v>0.71</v>
+      </c>
+      <c r="H3">
+        <v>0.722</v>
+      </c>
+      <c r="I3">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6890000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="C4">
-        <v>0.512</v>
+        <v>0.923</v>
       </c>
       <c r="D4">
         <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.51</v>
+        <v>0.025</v>
       </c>
       <c r="F4">
-        <v>0.102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.929</v>
+      </c>
+      <c r="G4">
+        <v>0.703</v>
+      </c>
+      <c r="H4">
+        <v>0.491</v>
+      </c>
+      <c r="I4">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.677</v>
+        <v>0.508</v>
       </c>
       <c r="C5">
-        <v>0.487</v>
+        <v>0.503</v>
       </c>
       <c r="D5">
-        <v>0.49</v>
+        <v>0.975</v>
       </c>
       <c r="E5">
         <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.262</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.477</v>
+      </c>
+      <c r="I5">
+        <v>0.9370000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6930000000000001</v>
+        <v>0.961</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.04500000000000004</v>
       </c>
       <c r="D6">
-        <v>0.898</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="E6">
-        <v>0.898</v>
+        <v>0.738</v>
       </c>
       <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.047</v>
+      </c>
+      <c r="H6">
+        <v>0.034</v>
+      </c>
+      <c r="I6">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.54</v>
+      </c>
+      <c r="C7">
+        <v>0.29</v>
+      </c>
+      <c r="D7">
+        <v>0.297</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.953</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.51</v>
+      </c>
+      <c r="I7">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.516</v>
+      </c>
+      <c r="C8">
+        <v>0.278</v>
+      </c>
+      <c r="D8">
+        <v>0.509</v>
+      </c>
+      <c r="E8">
+        <v>0.523</v>
+      </c>
+      <c r="F8">
+        <v>0.966</v>
+      </c>
+      <c r="G8">
+        <v>0.49</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.729</v>
+      </c>
+      <c r="D9">
+        <v>0.09599999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.06299999999999994</v>
+      </c>
+      <c r="F9">
+        <v>0.496</v>
+      </c>
+      <c r="G9">
+        <v>0.9390000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.517</v>
+      </c>
+      <c r="I9">
         <v>0.5</v>
       </c>
     </row>
